--- a/Base/APIOutputRunData_default.xlsx
+++ b/Base/APIOutputRunData_default.xlsx
@@ -521,12 +521,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10429</t>
+          <t>8761</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>0.661</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.746</t>
+          <t>3.366</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>50346.683</t>
+          <t>50346.16</t>
         </is>
       </c>
     </row>

--- a/Base/APIOutputRunData_default.xlsx
+++ b/Base/APIOutputRunData_default.xlsx
@@ -536,12 +536,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
